--- a/doc/CribsYii2.xlsx
+++ b/doc/CribsYii2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\V-hosts\docker\Yii2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A3C4B6-AE08-48B8-8697-2D5F4CB953C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53466AA-6D39-49B8-AB0E-83E1EBC13664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="630" windowWidth="14370" windowHeight="15450" activeTab="3" xr2:uid="{0B304EAA-3B7C-4060-9B42-4150E7D724C7}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="1185" windowWidth="23025" windowHeight="14850" firstSheet="3" activeTab="3" xr2:uid="{0B304EAA-3B7C-4060-9B42-4150E7D724C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Console" sheetId="2" r:id="rId1"/>

--- a/doc/CribsYii2.xlsx
+++ b/doc/CribsYii2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\V-hosts\docker\Yii2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53466AA-6D39-49B8-AB0E-83E1EBC13664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093528F3-8112-4D08-9B83-818C63B0CEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="1185" windowWidth="23025" windowHeight="14850" firstSheet="3" activeTab="3" xr2:uid="{0B304EAA-3B7C-4060-9B42-4150E7D724C7}"/>
+    <workbookView minimized="1" xWindow="345" yWindow="1350" windowWidth="23025" windowHeight="14850" firstSheet="3" activeTab="3" xr2:uid="{0B304EAA-3B7C-4060-9B42-4150E7D724C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Console" sheetId="2" r:id="rId1"/>
